--- a/Project documents/elaboration-phase/20161016_genormaliseerde_database_structuur.xlsx
+++ b/Project documents/elaboration-phase/20161016_genormaliseerde_database_structuur.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>Customer_ID</t>
   </si>
@@ -107,18 +107,9 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Terms</t>
-  </si>
-  <si>
     <t>Tax</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Order type</t>
   </si>
   <si>
@@ -158,9 +149,6 @@
     <t>•Quotation</t>
   </si>
   <si>
-    <t>•Date</t>
-  </si>
-  <si>
     <t>•Order type</t>
   </si>
   <si>
@@ -230,13 +218,55 @@
     <t>Project_ID</t>
   </si>
   <si>
-    <t>• Paid</t>
-  </si>
-  <si>
     <t>•Paid</t>
   </si>
   <si>
     <t>Paid</t>
+  </si>
+  <si>
+    <t>QuotationDate</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>InvoiceNumber</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Contact person</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>Voorletters</t>
+  </si>
+  <si>
+    <t>•Appointment day</t>
+  </si>
+  <si>
+    <t>Sales percentage</t>
+  </si>
+  <si>
+    <t>Number of invoices</t>
+  </si>
+  <si>
+    <t>Gross revenue</t>
+  </si>
+  <si>
+    <t>Appointment day</t>
+  </si>
+  <si>
+    <t>Quotation number</t>
+  </si>
+  <si>
+    <t>•QuotationDate</t>
+  </si>
+  <si>
+    <t>•Quotation number</t>
   </si>
 </sst>
 </file>
@@ -295,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -303,6 +333,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -617,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,514 +730,631 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>9</v>
+      <c r="B15" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>12</v>
+      <c r="B16" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>14</v>
+      <c r="B19" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>62</v>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>36</v>
+      <c r="B24" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>37</v>
+      <c r="B27" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>38</v>
+      <c r="B28" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>55</v>
+      <c r="B68" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F70" s="5"/>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>48</v>
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" s="1" t="s">
+      <c r="B73" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
-        <v>62</v>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Project documents/elaboration-phase/20161016_genormaliseerde_database_structuur.xlsx
+++ b/Project documents/elaboration-phase/20161016_genormaliseerde_database_structuur.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>Customer_ID</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>tbl_quotations</t>
-  </si>
-  <si>
-    <t>•Quotation_ID</t>
   </si>
   <si>
     <t>Ledger account number</t>
@@ -650,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,12 +728,12 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -751,7 +748,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -776,22 +773,22 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
@@ -816,12 +813,12 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -856,7 +853,7 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
@@ -866,12 +863,12 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
@@ -891,7 +888,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -932,6 +929,9 @@
       <c r="D53" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F53" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
@@ -940,6 +940,9 @@
       <c r="D55" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="F55" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
@@ -948,6 +951,9 @@
       <c r="D56" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="F56" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -956,6 +962,9 @@
       <c r="D57" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="F57" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
@@ -964,13 +973,19 @@
       <c r="D58" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F58" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -978,7 +993,10 @@
         <v>5</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -1007,7 +1025,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>37</v>
@@ -1015,7 +1033,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>38</v>
@@ -1034,23 +1052,23 @@
         <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>80</v>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -1058,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -1066,47 +1084,32 @@
         <v>14</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1171,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>49</v>
@@ -1194,7 +1197,7 @@
         <v>44</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>19</v>
@@ -1208,13 +1211,13 @@
         <v>29</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -1225,10 +1228,10 @@
         <v>30</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>13</v>
@@ -1253,10 +1256,10 @@
         <v>5</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>11</v>
@@ -1267,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>27</v>
@@ -1278,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -1289,12 +1292,12 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -1309,7 +1312,7 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
@@ -1334,22 +1337,22 @@
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
